--- a/biology/Zoologie/Goliathus/Goliathus.xlsx
+++ b/biology/Zoologie/Goliathus/Goliathus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Goliathus est un genre d'insectes coléoptères de la famille des Scarabaeidae, de la sous-famille des Cetoniinae et de la tribu des Goliathini.
 </t>
@@ -511,11 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le genre a été décrit par le naturaliste français Jean-Baptiste de Lamarck en 1801 sous le nom de Goliathus. Ce terme a inspiré le nom de la tribu.
-Nom vernaculaire
-Goliath.</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre a été décrit par le naturaliste français Jean-Baptiste de Lamarck en 1801 sous le nom de Goliathus. Ce terme a inspiré le nom de la tribu.
+</t>
         </is>
       </c>
     </row>
@@ -540,14 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ils peuvent atteindre une taille de plus d'une dizaine de centimètres, et peser une centaine de grammes. C'est la raison pour laquelle ils sont particulièrement connus et recherchés des collectionneurs.
-Le mâle se distingue aisément de la femelle par ses deux petites cornes céphaliques.
-</t>
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Goliath.</t>
         </is>
       </c>
     </row>
@@ -572,12 +589,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Répartition</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ils vivent en Afrique tropicale, dans la canopée des forêts pluviales.
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils peuvent atteindre une taille de plus d'une dizaine de centimètres, et peser une centaine de grammes. C'est la raison pour laquelle ils sont particulièrement connus et recherchés des collectionneurs.
+Le mâle se distingue aisément de la femelle par ses deux petites cornes céphaliques.
 </t>
         </is>
       </c>
@@ -603,10 +623,45 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils vivent en Afrique tropicale, dans la canopée des forêts pluviales.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Goliathus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Goliathus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Liste des espèces :
 Goliathus albosignatus
